--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1964.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1964.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.117734136738468</v>
+        <v>1.103994727134705</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>1.778860211372375</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>9.218070983886719</v>
       </c>
       <c r="D1">
-        <v>-1</v>
+        <v>2.399453163146973</v>
       </c>
       <c r="E1">
-        <v>1.096799827989966</v>
+        <v>1.288108587265015</v>
       </c>
     </row>
   </sheetData>
